--- a/data/interfaceCase.xlsx
+++ b/data/interfaceCase.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="28680" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register_success" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="register_error" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="recharge" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="未覆盖用例" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="invest" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="audit" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="register_success" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="register_error" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="add" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="未覆盖用例" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="invest" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -117,77 +117,77 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -461,15 +461,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col width="7.625" customWidth="1" style="14" min="1" max="1"/>
-    <col width="9" customWidth="1" style="14" min="2" max="2"/>
-    <col width="26.375" customWidth="1" style="14" min="3" max="3"/>
-    <col width="8.375" customWidth="1" style="14" min="4" max="4"/>
-    <col width="17.5" customWidth="1" style="14" min="5" max="5"/>
-    <col width="41.125" customWidth="1" style="10" min="6" max="6"/>
-    <col width="40.875" customWidth="1" style="14" min="7" max="7"/>
-    <col width="6.375" customWidth="1" style="14" min="8" max="8"/>
-    <col width="57.25" customWidth="1" style="14" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="14" width="7.625"/>
+    <col customWidth="1" max="2" min="2" style="14" width="9"/>
+    <col customWidth="1" max="3" min="3" style="14" width="26.375"/>
+    <col customWidth="1" max="4" min="4" style="14" width="8.375"/>
+    <col customWidth="1" max="5" min="5" style="14" width="17.5"/>
+    <col customWidth="1" max="6" min="6" style="10" width="41.125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="40.875"/>
+    <col customWidth="1" max="8" min="8" style="14" width="6.375"/>
+    <col customWidth="1" max="9" min="9" style="14" width="57.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -519,7 +519,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="2" s="14">
       <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
@@ -564,7 +564,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="3" s="14">
       <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
@@ -609,7 +609,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="4" s="14">
       <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
@@ -700,7 +700,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -719,13 +719,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="31.25" customWidth="1" style="14" min="3" max="3"/>
-    <col width="11.75" customWidth="1" style="14" min="4" max="4"/>
-    <col width="24" customWidth="1" style="14" min="5" max="5"/>
-    <col width="20.125" customWidth="1" style="14" min="6" max="6"/>
-    <col width="14.625" customWidth="1" style="14" min="7" max="7"/>
-    <col width="14.75" customWidth="1" style="14" min="8" max="8"/>
-    <col width="17.875" customWidth="1" style="14" min="9" max="9"/>
+    <col customWidth="1" max="3" min="3" style="14" width="31.25"/>
+    <col customWidth="1" max="4" min="4" style="14" width="11.75"/>
+    <col customWidth="1" max="5" min="5" style="14" width="24"/>
+    <col customWidth="1" max="6" min="6" style="14" width="20.125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="14.625"/>
+    <col customWidth="1" max="8" min="8" style="14" width="14.75"/>
+    <col customWidth="1" max="9" min="9" style="14" width="17.875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -775,7 +775,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="2" s="14">
       <c r="A2" s="12" t="n">
         <v>1</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="H2" s="12" t="n"/>
       <c r="I2" s="12" t="n"/>
     </row>
-    <row r="3" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="3" s="14">
       <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="H3" s="12" t="n"/>
       <c r="I3" s="12" t="n"/>
     </row>
-    <row r="4" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="4" s="14">
       <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="H4" s="12" t="n"/>
       <c r="I4" s="12" t="n"/>
     </row>
-    <row r="5" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="5" s="14">
       <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
@@ -923,7 +923,7 @@
       <c r="H5" s="12" t="n"/>
       <c r="I5" s="12" t="n"/>
     </row>
-    <row r="6" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="6" s="14">
       <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
@@ -960,7 +960,7 @@
       <c r="H6" s="12" t="n"/>
       <c r="I6" s="12" t="n"/>
     </row>
-    <row r="7" ht="15" customHeight="1" s="14">
+    <row customHeight="1" ht="15" r="7" s="14">
       <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="H7" s="12" t="n"/>
       <c r="I7" s="12" t="n"/>
     </row>
-    <row r="8" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="8" s="14">
       <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="H8" s="12" t="n"/>
       <c r="I8" s="12" t="n"/>
     </row>
-    <row r="9" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="9" s="14">
       <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="H9" s="12" t="n"/>
       <c r="I9" s="12" t="n"/>
     </row>
-    <row r="10" ht="18.75" customHeight="1" s="14">
+    <row customHeight="1" ht="18.75" r="10" s="14">
       <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
       <c r="H10" s="4" t="n"/>
       <c r="I10" s="4" t="n"/>
     </row>
-    <row r="11" ht="42.75" customHeight="1" s="14">
+    <row customHeight="1" ht="42.75" r="11" s="14">
       <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="H11" s="4" t="n"/>
       <c r="I11" s="4" t="n"/>
     </row>
-    <row r="12" ht="28.5" customHeight="1" s="14">
+    <row customHeight="1" ht="28.5" r="12" s="14">
       <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
@@ -1183,13 +1183,13 @@
       <c r="I12" s="12" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1202,11 +1202,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="24.625" customWidth="1" style="14" min="3" max="3"/>
-    <col width="7.5" customWidth="1" style="14" min="4" max="4"/>
-    <col width="14.375" customWidth="1" style="14" min="5" max="5"/>
-    <col width="54.5" customWidth="1" style="14" min="6" max="6"/>
-    <col width="38.375" customWidth="1" style="14" min="7" max="7"/>
+    <col customWidth="1" max="3" min="3" style="14" width="24.625"/>
+    <col customWidth="1" max="4" min="4" style="14" width="7.5"/>
+    <col customWidth="1" max="5" min="5" style="14" width="14.375"/>
+    <col customWidth="1" max="6" min="6" style="14" width="54.5"/>
+    <col customWidth="1" max="7" min="7" style="14" width="38.375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
     </row>
-    <row r="3" customFormat="1" s="1">
+    <row customFormat="1" r="3" s="1">
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
@@ -1331,7 +1331,7 @@
         </is>
       </c>
     </row>
-    <row r="4" customFormat="1" s="1">
+    <row customFormat="1" r="4" s="1">
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
@@ -1533,10 +1533,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -1554,15 +1554,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="7.625" customWidth="1" style="14" min="1" max="1"/>
-    <col width="9.125" customWidth="1" style="14" min="2" max="2"/>
-    <col width="31" customWidth="1" style="14" min="3" max="3"/>
-    <col width="8.375" customWidth="1" style="14" min="4" max="4"/>
-    <col width="18.75" customWidth="1" style="14" min="5" max="5"/>
-    <col width="41" customWidth="1" style="14" min="6" max="6"/>
-    <col width="48.75" customWidth="1" style="14" min="7" max="7"/>
-    <col width="7.625" customWidth="1" style="14" min="8" max="8"/>
-    <col width="53.875" customWidth="1" style="14" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="14" width="7.625"/>
+    <col customWidth="1" max="2" min="2" style="14" width="9.125"/>
+    <col customWidth="1" max="3" min="3" style="14" width="31"/>
+    <col customWidth="1" max="4" min="4" style="14" width="8.375"/>
+    <col customWidth="1" max="5" min="5" style="14" width="18.75"/>
+    <col customWidth="1" max="6" min="6" style="14" width="41"/>
+    <col customWidth="1" max="7" min="7" style="14" width="48.75"/>
+    <col customWidth="1" max="8" min="8" style="14" width="7.625"/>
+    <col customWidth="1" max="9" min="9" style="14" width="53.875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="3" s="14">
       <c r="A3" s="12" t="n">
         <v>2</v>
       </c>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="4" s="14">
       <c r="A4" s="12" t="n">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="5" s="14">
       <c r="A5" s="12" t="n">
         <v>4</v>
       </c>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="6" s="14">
       <c r="A6" s="12" t="n">
         <v>5</v>
       </c>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="7" s="14">
       <c r="A7" s="12" t="n">
         <v>6</v>
       </c>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="I7" s="12" t="n"/>
     </row>
-    <row r="8" ht="14.45" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="14.45" r="8" s="1">
       <c r="A8" s="12" t="n">
         <v>7</v>
       </c>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="I8" s="12" t="n"/>
     </row>
-    <row r="9" ht="14.45" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="14.45" r="9" s="1">
       <c r="A9" s="12" t="n">
         <v>8</v>
       </c>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="I9" s="12" t="n"/>
     </row>
-    <row r="10" ht="14.45" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="14.45" r="10" s="1">
       <c r="A10" s="12" t="n">
         <v>9</v>
       </c>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="I10" s="12" t="n"/>
     </row>
-    <row r="11" ht="14.45" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="14.45" r="11" s="1">
       <c r="A11" s="12" t="n">
         <v>10</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="I11" s="12" t="n"/>
     </row>
-    <row r="12" ht="14.45" customFormat="1" customHeight="1" s="1">
+    <row customFormat="1" customHeight="1" ht="14.45" r="12" s="1">
       <c r="A12" s="12" t="n">
         <v>11</v>
       </c>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="I12" s="12" t="n"/>
     </row>
-    <row r="13" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="13" s="14">
       <c r="A13" s="12" t="n">
         <v>12</v>
       </c>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="I13" s="12" t="n"/>
     </row>
-    <row r="14" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="14" s="14">
       <c r="A14" s="12" t="n">
         <v>13</v>
       </c>
@@ -2160,7 +2160,7 @@
       </c>
       <c r="I14" s="12" t="n"/>
     </row>
-    <row r="15" ht="14.45" customHeight="1" s="14">
+    <row customHeight="1" ht="14.45" r="15" s="14">
       <c r="A15" s="12" t="n">
         <v>14</v>
       </c>
@@ -2243,8 +2243,8 @@
       <c r="I16" s="12" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2262,13 +2262,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col width="16.75" customWidth="1" style="14" min="1" max="1"/>
-    <col width="16.375" customWidth="1" style="14" min="2" max="2"/>
-    <col width="17.5" customWidth="1" style="14" min="3" max="3"/>
-    <col width="28.5" customWidth="1" style="14" min="5" max="5"/>
-    <col width="43.625" customWidth="1" style="14" min="6" max="6"/>
-    <col width="18.25" customWidth="1" style="14" min="7" max="7"/>
-    <col width="13.5" customWidth="1" style="14" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="14" width="16.75"/>
+    <col customWidth="1" max="2" min="2" style="14" width="16.375"/>
+    <col customWidth="1" max="3" min="3" style="14" width="17.5"/>
+    <col customWidth="1" max="5" min="5" style="14" width="28.5"/>
+    <col customWidth="1" max="6" min="6" style="14" width="43.625"/>
+    <col customWidth="1" max="7" min="7" style="14" width="18.25"/>
+    <col customWidth="1" max="9" min="9" style="14" width="13.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2946,8 +2946,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -2965,13 +2965,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="11.5" customWidth="1" style="14" min="1" max="1"/>
-    <col width="11" customWidth="1" style="14" min="2" max="2"/>
-    <col width="25.625" customWidth="1" style="14" min="3" max="3"/>
-    <col width="19.875" customWidth="1" style="24" min="5" max="5"/>
-    <col width="48.125" customWidth="1" style="14" min="6" max="6"/>
-    <col width="32.375" customWidth="1" style="14" min="7" max="7"/>
-    <col width="39.25" customWidth="1" style="14" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" style="14" width="11.5"/>
+    <col customWidth="1" max="2" min="2" style="14" width="11"/>
+    <col customWidth="1" max="3" min="3" style="14" width="25.625"/>
+    <col customWidth="1" max="5" min="5" style="24" width="19.875"/>
+    <col customWidth="1" max="6" min="6" style="14" width="48.125"/>
+    <col customWidth="1" max="7" min="7" style="14" width="32.375"/>
+    <col customWidth="1" max="9" min="9" style="14" width="39.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="J1" s="18" t="n"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" s="14">
+    <row customHeight="1" ht="22.5" r="2" s="14">
       <c r="A2" s="15" t="n">
         <v>1</v>
       </c>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I2" s="15" t="n"/>
     </row>
-    <row r="3" ht="94.5" customHeight="1" s="14">
+    <row customHeight="1" ht="94.5" r="3" s="14">
       <c r="A3" s="15" t="n">
         <v>2</v>
       </c>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="4" s="14">
       <c r="A4" s="15" t="n">
         <v>3</v>
       </c>
@@ -3169,7 +3169,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="5" s="14">
       <c r="A5" s="15" t="n">
         <v>4</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="I5" s="19" t="n"/>
     </row>
-    <row r="6" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="6" s="14">
       <c r="A6" s="15" t="n">
         <v>5</v>
       </c>
@@ -3267,7 +3267,7 @@
       </c>
       <c r="I6" s="19" t="n"/>
     </row>
-    <row r="7" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="7" s="14">
       <c r="A7" s="15" t="n">
         <v>6</v>
       </c>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="I7" s="19" t="n"/>
     </row>
-    <row r="8" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="8" s="14">
       <c r="A8" s="15" t="n">
         <v>7</v>
       </c>
@@ -3365,7 +3365,7 @@
       </c>
       <c r="I8" s="19" t="n"/>
     </row>
-    <row r="9" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="9" s="14">
       <c r="A9" s="15" t="n">
         <v>8</v>
       </c>
@@ -3418,7 +3418,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="128.25" customHeight="1" s="14">
+    <row customHeight="1" ht="128.25" r="10" s="14">
       <c r="A10" s="15" t="n">
         <v>9</v>
       </c>
@@ -3472,8 +3472,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -3672,7 +3672,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3690,14 +3690,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.375" customWidth="1" style="14" min="1" max="1"/>
-    <col width="26.375" customWidth="1" style="14" min="2" max="2"/>
-    <col width="27" customWidth="1" style="14" min="3" max="3"/>
-    <col width="20.875" customWidth="1" style="14" min="4" max="4"/>
-    <col width="17.5" customWidth="1" style="14" min="5" max="5"/>
-    <col width="23.25" customWidth="1" style="14" min="6" max="6"/>
-    <col width="20.625" customWidth="1" style="14" min="7" max="7"/>
-    <col width="22.75" customWidth="1" style="14" min="8" max="9"/>
+    <col customWidth="1" max="1" min="1" style="14" width="20.375"/>
+    <col customWidth="1" max="2" min="2" style="14" width="26.375"/>
+    <col customWidth="1" max="3" min="3" style="14" width="27"/>
+    <col customWidth="1" max="4" min="4" style="14" width="20.875"/>
+    <col customWidth="1" max="5" min="5" style="14" width="17.5"/>
+    <col customWidth="1" max="6" min="6" style="14" width="23.25"/>
+    <col customWidth="1" max="7" min="7" style="14" width="20.625"/>
+    <col customWidth="1" max="9" min="8" style="14" width="22.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="3" s="14">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="4" s="14">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="5" s="14">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="6" s="14">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="7" s="14">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="8" s="14">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="9" s="14">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -4032,7 +4032,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="10" s="14">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="14">
+    <row customHeight="1" ht="14.25" r="11" s="14">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -4103,7 +4103,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4121,7 +4121,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="20.625" customWidth="1" style="14" min="1" max="9"/>
+    <col customWidth="1" max="9" min="1" style="14" width="20.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4372,7 +4372,7 @@
       <c r="C8" s="26" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>